--- a/mvc-vs-webflux/benchmark/results/plain/2c512m_br.xlsx
+++ b/mvc-vs-webflux/benchmark/results/plain/2c512m_br.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoon-ilsong/Workspace/ats/mvc-vs-webflux/benchmark/results/plain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC9DD07-9805-D246-9E91-ACC5B8C39B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EF081D-7474-3342-BF21-1947CA49C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -558,7 +558,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -567,7 +567,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -641,7 +640,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[2c512m_br.xlsx]throughput!PivotTable5</c:name>
-    <c:fmtId val="0"/>
+    <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
@@ -919,7 +918,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC37-F749-B6EA-873640CBD328}"/>
+              <c16:uniqueId val="{00000000-5A28-F54F-AD4B-FE8DC5DDBBD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1078,7 +1077,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC37-F749-B6EA-873640CBD328}"/>
+              <c16:uniqueId val="{00000001-5A28-F54F-AD4B-FE8DC5DDBBD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1091,11 +1090,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="808679920"/>
-        <c:axId val="588781856"/>
+        <c:axId val="210455616"/>
+        <c:axId val="203898288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="808679920"/>
+        <c:axId val="210455616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1137,7 @@
             <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588781856"/>
+        <c:crossAx val="203898288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1146,11 +1145,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="588781856"/>
+        <c:axId val="203898288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1170,7 +1169,34 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="808679920"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210455616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1288,7 +1314,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[2c512m_br.xlsx]avg latency!PivotTable10</c:name>
-    <c:fmtId val="0"/>
+    <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
@@ -1405,118 +1431,6 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1678,7 +1592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A527-4B45-BF7C-302FEFE0276E}"/>
+              <c16:uniqueId val="{00000000-7959-6743-B670-620F404B8F09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1837,7 +1751,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A527-4B45-BF7C-302FEFE0276E}"/>
+              <c16:uniqueId val="{00000001-7959-6743-B670-620F404B8F09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1850,11 +1764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="793591712"/>
-        <c:axId val="957932640"/>
+        <c:axId val="531182224"/>
+        <c:axId val="204442560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="793591712"/>
+        <c:axId val="531182224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1811,7 @@
             <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="957932640"/>
+        <c:crossAx val="204442560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1905,11 +1819,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="957932640"/>
+        <c:axId val="204442560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1929,7 +1843,34 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="793591712"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531182224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2167,6 +2108,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2223,6 +2167,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2841,6 +2788,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2897,6 +2847,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2953,6 +2906,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3009,6 +2965,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5945,22 +5904,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0C13FD-126C-4E91-7A40-88CB39C8F072}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8F7297-E8E8-4768-5B53-29E6CBF70311}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5986,22 +5945,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54061BB-98D8-A750-98C4-EB328329E91C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3938E07C-0CAC-3297-5446-581AFBF99F1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6032,9 +5991,9 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6073,10 +6032,10 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142522</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6460,7 +6419,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A62EED7-DCB9-184A-957D-78738987E4C4}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A62EED7-DCB9-184A-957D-78738987E4C4}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -6579,7 +6538,7 @@
   <dataFields count="1">
     <dataField name="Sum of Requests/sec" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -6593,6 +6552,30 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6618,7 +6601,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7ED19C1A-0477-4146-AA35-F2EE401E6539}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7ED19C1A-0477-4146-AA35-F2EE401E6539}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -6737,7 +6720,7 @@
   <dataFields count="1">
     <dataField name="Sum of Avg Latency(ms)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -6751,6 +6734,30 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6776,7 +6783,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56842999-B3E6-6E42-A566-46858C4BC0D7}" name="PivotTable11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56842999-B3E6-6E42-A566-46858C4BC0D7}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -6934,7 +6941,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB097996-EAD3-FF42-8810-2EC78D0621C9}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB097996-EAD3-FF42-8810-2EC78D0621C9}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -7142,9 +7149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7182,7 +7189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7288,7 +7295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7430,7 +7437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8228,7 +8235,7 @@
   <dimension ref="A3:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8569,7 +8576,7 @@
   <dimension ref="A3:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8609,13 +8616,13 @@
       <c r="A5" s="2">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>4.1100000000000003</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>4.8899999999999997</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>9</v>
       </c>
     </row>
@@ -8623,13 +8630,13 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>2.33</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>3.3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>5.63</v>
       </c>
     </row>
@@ -8637,13 +8644,13 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>0.96</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>0.73</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>1.69</v>
       </c>
     </row>
@@ -8651,13 +8658,13 @@
       <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>0.82</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>0.86</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>1.68</v>
       </c>
     </row>
@@ -8665,13 +8672,13 @@
       <c r="A9" s="2">
         <v>50</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>5.92</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>4.9700000000000006</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>10.89</v>
       </c>
     </row>
@@ -8679,13 +8686,13 @@
       <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>2.16</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>1.73</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>3.89</v>
       </c>
     </row>
@@ -8693,13 +8700,13 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>1.84</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>1.59</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>3.43</v>
       </c>
     </row>
@@ -8707,13 +8714,13 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>1.92</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>1.65</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>3.57</v>
       </c>
     </row>
@@ -8721,13 +8728,13 @@
       <c r="A13" s="2">
         <v>100</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>9.61</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>8.14</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>17.75</v>
       </c>
     </row>
@@ -8735,13 +8742,13 @@
       <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>3.58</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>3.08</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>6.66</v>
       </c>
     </row>
@@ -8749,13 +8756,13 @@
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>3.24</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>2.61</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>5.85</v>
       </c>
     </row>
@@ -8763,13 +8770,13 @@
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>2.79</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>5.24</v>
       </c>
     </row>
@@ -8777,13 +8784,13 @@
       <c r="A17" s="2">
         <v>200</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>14.98</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>29.98</v>
       </c>
     </row>
@@ -8791,13 +8798,13 @@
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>4.53</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>4.13</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>8.66</v>
       </c>
     </row>
@@ -8805,13 +8812,13 @@
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>5.14</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>5.23</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>10.370000000000001</v>
       </c>
     </row>
@@ -8819,13 +8826,13 @@
       <c r="A20" s="3">
         <v>8</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>5.33</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>5.62</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>10.95</v>
       </c>
     </row>
@@ -8833,13 +8840,13 @@
       <c r="A21" s="2">
         <v>500</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>39.54</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>32.620000000000005</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>72.16</v>
       </c>
     </row>
@@ -8847,13 +8854,13 @@
       <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>16.47</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>11.29</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>27.759999999999998</v>
       </c>
     </row>
@@ -8861,13 +8868,13 @@
       <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>11.57</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>10.56</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>22.130000000000003</v>
       </c>
     </row>
@@ -8875,13 +8882,13 @@
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>11.5</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>10.77</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>22.27</v>
       </c>
     </row>
@@ -8889,13 +8896,13 @@
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>74.180000000000007</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>65.599999999999994</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>139.78</v>
       </c>
     </row>
@@ -8910,7 +8917,7 @@
   <dimension ref="A3:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8950,13 +8957,13 @@
       <c r="A5" s="2">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>213.57999999999998</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>337.36999999999995</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>550.95000000000005</v>
       </c>
     </row>
@@ -8964,13 +8971,13 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>151.21</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>287.89</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>439.1</v>
       </c>
     </row>
@@ -8978,13 +8985,13 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>35.479999999999997</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>13.83</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>49.309999999999995</v>
       </c>
     </row>
@@ -8992,13 +8999,13 @@
       <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>26.89</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>35.65</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>62.54</v>
       </c>
     </row>
@@ -9006,13 +9013,13 @@
       <c r="A9" s="2">
         <v>50</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>184.04000000000002</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>77.33</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>261.37</v>
       </c>
     </row>
@@ -9020,13 +9027,13 @@
       <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>46.27</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>42.24</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>88.51</v>
       </c>
     </row>
@@ -9034,13 +9041,13 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>47.69</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>16.11</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>63.8</v>
       </c>
     </row>
@@ -9048,13 +9055,13 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>90.08</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>18.98</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>109.06</v>
       </c>
     </row>
@@ -9062,13 +9069,13 @@
       <c r="A13" s="2">
         <v>100</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>369.28</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>225.12</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>594.4</v>
       </c>
     </row>
@@ -9076,13 +9083,13 @@
       <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>158.31</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>122.34</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>280.64999999999998</v>
       </c>
     </row>
@@ -9090,13 +9097,13 @@
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>155.5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>74.69</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>230.19</v>
       </c>
     </row>
@@ -9104,13 +9111,13 @@
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>55.47</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>28.09</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>83.56</v>
       </c>
     </row>
@@ -9118,13 +9125,13 @@
       <c r="A17" s="2">
         <v>200</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>310.18</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>314.39999999999998</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>624.58000000000004</v>
       </c>
     </row>
@@ -9132,13 +9139,13 @@
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>65.66</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>50.18</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>115.84</v>
       </c>
     </row>
@@ -9146,13 +9153,13 @@
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>126.53</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>110.21</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>236.74</v>
       </c>
     </row>
@@ -9160,13 +9167,13 @@
       <c r="A20" s="3">
         <v>8</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>117.99</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>154.01</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>272</v>
       </c>
     </row>
@@ -9174,13 +9181,13 @@
       <c r="A21" s="2">
         <v>500</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>1313.1</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>476.93999999999994</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>1790.04</v>
       </c>
     </row>
@@ -9188,13 +9195,13 @@
       <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>1070</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>274.77</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>1344.77</v>
       </c>
     </row>
@@ -9202,13 +9209,13 @@
       <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>164.1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>98.4</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>262.5</v>
       </c>
     </row>
@@ -9216,13 +9223,13 @@
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>79</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>103.77</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>182.76999999999998</v>
       </c>
     </row>
@@ -9230,13 +9237,13 @@
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>2390.1799999999998</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>1431.16</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>3821.3399999999997</v>
       </c>
     </row>
@@ -9251,7 +9258,7 @@
   <dimension ref="A3:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9291,13 +9298,13 @@
       <c r="A5" s="2">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>4.16</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>3.4000000000000004</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>7.56</v>
       </c>
     </row>
@@ -9305,13 +9312,13 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>1.43</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>2.52</v>
       </c>
     </row>
@@ -9319,13 +9326,13 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>1.32</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>1.19</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>2.5099999999999998</v>
       </c>
     </row>
@@ -9333,13 +9340,13 @@
       <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>1.41</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>2.5300000000000002</v>
       </c>
     </row>
@@ -9347,13 +9354,13 @@
       <c r="A9" s="2">
         <v>50</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>11.11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>9.59</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>20.700000000000003</v>
       </c>
     </row>
@@ -9361,13 +9368,13 @@
       <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>3.62</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>3.21</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>6.83</v>
       </c>
     </row>
@@ -9375,13 +9382,13 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>3.73</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>3.22</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>6.95</v>
       </c>
     </row>
@@ -9389,13 +9396,13 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>3.76</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>3.16</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>6.92</v>
       </c>
     </row>
@@ -9403,13 +9410,13 @@
       <c r="A13" s="2">
         <v>100</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>14.24</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>12.33</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>26.57</v>
       </c>
     </row>
@@ -9417,13 +9424,13 @@
       <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>4.66</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>4.01</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>8.67</v>
       </c>
     </row>
@@ -9431,13 +9438,13 @@
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>4.83</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>8.98</v>
       </c>
     </row>
@@ -9445,13 +9452,13 @@
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>4.75</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>4.17</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>8.92</v>
       </c>
     </row>
@@ -9459,13 +9466,13 @@
       <c r="A17" s="2">
         <v>200</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>17.14</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>14.22</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>31.36</v>
       </c>
     </row>
@@ -9473,13 +9480,13 @@
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>6.01</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>5.12</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>11.129999999999999</v>
       </c>
     </row>
@@ -9487,13 +9494,13 @@
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>5.65</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>4.6100000000000003</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>10.260000000000002</v>
       </c>
     </row>
@@ -9501,13 +9508,13 @@
       <c r="A20" s="3">
         <v>8</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>5.48</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>4.49</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>9.9700000000000006</v>
       </c>
     </row>
@@ -9515,13 +9522,13 @@
       <c r="A21" s="2">
         <v>500</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>18.259999999999998</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>15.33</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>33.590000000000003</v>
       </c>
     </row>
@@ -9529,13 +9536,13 @@
       <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>6.1</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>5.0599999999999996</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>11.16</v>
       </c>
     </row>
@@ -9543,13 +9550,13 @@
       <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>6.17</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>5.19</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>11.36</v>
       </c>
     </row>
@@ -9557,13 +9564,13 @@
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>5.99</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>5.08</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>11.07</v>
       </c>
     </row>
@@ -9571,13 +9578,13 @@
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>64.91</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>54.870000000000005</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>119.78</v>
       </c>
     </row>
